--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3205.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3205.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8910579911381084</v>
+        <v>1.479329347610474</v>
       </c>
       <c r="B1">
-        <v>1.632063459987433</v>
+        <v>2.011158466339111</v>
       </c>
       <c r="C1">
-        <v>5.689834928913946</v>
+        <v>2.358525514602661</v>
       </c>
       <c r="D1">
-        <v>4.45826173930191</v>
+        <v>2.815152645111084</v>
       </c>
       <c r="E1">
-        <v>1.787721258296637</v>
+        <v>2.72649621963501</v>
       </c>
     </row>
   </sheetData>
